--- a/data/openpyxl.xlsx
+++ b/data/openpyxl.xlsx
@@ -357,7 +357,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,7 +374,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
